--- a/public/DRAFTBOARD (1).xlsx
+++ b/public/DRAFTBOARD (1).xlsx
@@ -445,7 +445,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -458,6 +458,9 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2522,8 +2525,8 @@
       <c r="E52" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="F52" s="3" t="b">
-        <v>0</v>
+      <c r="F52" s="5" t="b">
+        <v>1</v>
       </c>
       <c r="G52" s="3" t="b">
         <v>0</v>

--- a/public/DRAFTBOARD (1).xlsx
+++ b/public/DRAFTBOARD (1).xlsx
@@ -7,6 +7,11 @@
   </sheets>
   <definedNames/>
   <calcPr/>
+  <extLst>
+    <ext uri="GoogleSheetsCustomDataVersion2">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="VETqYhA+oFAZYuckEAo2a4N/c85IFEQsXZ8Ul4P9eOU="/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -2318,8 +2323,8 @@
       <c r="F46" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="G46" s="3" t="b">
-        <v>1</v>
+      <c r="G46" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="H46" s="3" t="b">
         <v>0</v>

--- a/public/DRAFTBOARD (1).xlsx
+++ b/public/DRAFTBOARD (1).xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="131">
   <si>
     <t>Name:</t>
   </si>
@@ -403,6 +403,12 @@
   </si>
   <si>
     <t>Frei</t>
+  </si>
+  <si>
+    <t>Thomas</t>
+  </si>
+  <si>
+    <t>Pilon</t>
   </si>
 </sst>
 </file>
@@ -450,7 +456,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -466,6 +472,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3599,8 +3608,76 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" ht="15.75" customHeight="1"/>
-    <row r="84" ht="15.75" customHeight="1"/>
+    <row r="83" ht="15.75" customHeight="1">
+      <c r="A83" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C83" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D83" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E83" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F83" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G83" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H83" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I83" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J83" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K83" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" ht="15.75" customHeight="1">
+      <c r="A84" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C84" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D84" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E84" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F84" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G84" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H84" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I84" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J84" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K84" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
     <row r="85" ht="15.75" customHeight="1"/>
     <row r="86" ht="15.75" customHeight="1"/>
     <row r="87" ht="15.75" customHeight="1"/>
